--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H2">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I2">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J2">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.36475674865576</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N2">
-        <v>1.36475674865576</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O2">
-        <v>0.6535315777608501</v>
+        <v>0.638793578492805</v>
       </c>
       <c r="P2">
-        <v>0.6535315777608501</v>
+        <v>0.6387935784928049</v>
       </c>
       <c r="Q2">
-        <v>4.001397551200943</v>
+        <v>7.374821674037888</v>
       </c>
       <c r="R2">
-        <v>4.001397551200943</v>
+        <v>66.37339506634099</v>
       </c>
       <c r="S2">
-        <v>0.2189143086683616</v>
+        <v>0.2603147168980753</v>
       </c>
       <c r="T2">
-        <v>0.2189143086683616</v>
+        <v>0.2603147168980752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H3">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I3">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J3">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.723522984255894</v>
+        <v>0.7887676666666668</v>
       </c>
       <c r="N3">
-        <v>0.723522984255894</v>
+        <v>2.366303</v>
       </c>
       <c r="O3">
-        <v>0.3464684222391499</v>
+        <v>0.3612064215071951</v>
       </c>
       <c r="P3">
-        <v>0.3464684222391499</v>
+        <v>0.361206421507195</v>
       </c>
       <c r="Q3">
-        <v>2.121332684590652</v>
+        <v>4.170099756509889</v>
       </c>
       <c r="R3">
-        <v>2.121332684590652</v>
+        <v>37.530897808589</v>
       </c>
       <c r="S3">
-        <v>0.116056970636018</v>
+        <v>0.1471951981393805</v>
       </c>
       <c r="T3">
-        <v>0.116056970636018</v>
+        <v>0.1471951981393804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H4">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I4">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J4">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.36475674865576</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N4">
-        <v>1.36475674865576</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O4">
-        <v>0.6535315777608501</v>
+        <v>0.638793578492805</v>
       </c>
       <c r="P4">
-        <v>0.6535315777608501</v>
+        <v>0.6387935784928049</v>
       </c>
       <c r="Q4">
-        <v>3.633759738623279</v>
+        <v>4.234794054636444</v>
       </c>
       <c r="R4">
-        <v>3.633759738623279</v>
+        <v>38.113146491728</v>
       </c>
       <c r="S4">
-        <v>0.1988010416033</v>
+        <v>0.1494787622235155</v>
       </c>
       <c r="T4">
-        <v>0.1988010416033</v>
+        <v>0.1494787622235155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H5">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I5">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J5">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.723522984255894</v>
+        <v>0.7887676666666668</v>
       </c>
       <c r="N5">
-        <v>0.723522984255894</v>
+        <v>2.366303</v>
       </c>
       <c r="O5">
-        <v>0.3464684222391499</v>
+        <v>0.3612064215071951</v>
       </c>
       <c r="P5">
-        <v>0.3464684222391499</v>
+        <v>0.361206421507195</v>
       </c>
       <c r="Q5">
-        <v>1.926430254143984</v>
+        <v>2.394568226412445</v>
       </c>
       <c r="R5">
-        <v>1.926430254143984</v>
+        <v>21.551114037712</v>
       </c>
       <c r="S5">
-        <v>0.1053939634558866</v>
+        <v>0.08452290475660922</v>
       </c>
       <c r="T5">
-        <v>0.1053939634558866</v>
+        <v>0.0845229047566092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.15831897853001</v>
+        <v>4.650871</v>
       </c>
       <c r="H6">
-        <v>3.15831897853001</v>
+        <v>13.952613</v>
       </c>
       <c r="I6">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="J6">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.36475674865576</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N6">
-        <v>1.36475674865576</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O6">
-        <v>0.6535315777608501</v>
+        <v>0.638793578492805</v>
       </c>
       <c r="P6">
-        <v>0.6535315777608501</v>
+        <v>0.6387935784928049</v>
       </c>
       <c r="Q6">
-        <v>4.310337140356397</v>
+        <v>6.487665838965665</v>
       </c>
       <c r="R6">
-        <v>4.310337140356397</v>
+        <v>58.38899255069099</v>
       </c>
       <c r="S6">
-        <v>0.2358162274891885</v>
+        <v>0.2290000993712143</v>
       </c>
       <c r="T6">
-        <v>0.2358162274891885</v>
+        <v>0.2290000993712142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.15831897853001</v>
+        <v>4.650871</v>
       </c>
       <c r="H7">
-        <v>3.15831897853001</v>
+        <v>13.952613</v>
       </c>
       <c r="I7">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="J7">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.723522984255894</v>
+        <v>0.7887676666666668</v>
       </c>
       <c r="N7">
-        <v>0.723522984255894</v>
+        <v>2.366303</v>
       </c>
       <c r="O7">
-        <v>0.3464684222391499</v>
+        <v>0.3612064215071951</v>
       </c>
       <c r="P7">
-        <v>0.3464684222391499</v>
+        <v>0.361206421507195</v>
       </c>
       <c r="Q7">
-        <v>2.285116372578059</v>
+        <v>3.668456666637667</v>
       </c>
       <c r="R7">
-        <v>2.285116372578059</v>
+        <v>33.016109999739</v>
       </c>
       <c r="S7">
-        <v>0.1250174881472453</v>
+        <v>0.1294883186112054</v>
       </c>
       <c r="T7">
-        <v>0.1250174881472453</v>
+        <v>0.1294883186112054</v>
       </c>
     </row>
   </sheetData>
